--- a/02-16-eBiz.xlsx
+++ b/02-16-eBiz.xlsx
@@ -468,7 +468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -552,7 +552,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="465">
+  <cellStyleXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -965,6 +965,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1050,7 +1052,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1076,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="465">
+  <cellStyles count="467">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1341,6 +1343,8 @@
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1873,7 +1877,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
